--- a/Cam4calib.xlsx
+++ b/Cam4calib.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A124B3-1BE8-4747-A984-8FA4EF389C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59122119-4503-4F66-8E0A-D49EC01590B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14794" yWindow="4431" windowWidth="24686" windowHeight="13218" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14914" yWindow="2743" windowWidth="16192" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,20 +345,20 @@
   <dimension ref="A1:E419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D108"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>907.47900000000004</v>
+        <v>922.99900000000002</v>
       </c>
       <c r="B1" s="1">
-        <v>1015.128</v>
+        <v>1015.177</v>
       </c>
       <c r="C1" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -367,43 +367,43 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>950.63599999999997</v>
+        <v>959.25599999999997</v>
       </c>
       <c r="B2" s="1">
-        <v>1778.1120000000001</v>
+        <v>1784.0640000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-16.07</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>942.20500000000004</v>
+        <v>951.58900000000006</v>
       </c>
       <c r="B3" s="1">
-        <v>1674.6659999999999</v>
+        <v>1679.02</v>
       </c>
       <c r="C3" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-13.95</v>
+        <v>-13.98</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>935.29399999999998</v>
+        <v>945.46799999999996</v>
       </c>
       <c r="B4" s="1">
-        <v>1578.9380000000001</v>
+        <v>1581.357</v>
       </c>
       <c r="C4" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D4" s="1">
         <v>-11.98</v>
@@ -412,28 +412,28 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>928.529</v>
+        <v>939.88099999999997</v>
       </c>
       <c r="B5" s="1">
-        <v>1481.7529999999999</v>
+        <v>1484.6980000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-9.93</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>923.09900000000005</v>
+        <v>935.12599999999998</v>
       </c>
       <c r="B6" s="1">
-        <v>1388.549</v>
+        <v>1390.617</v>
       </c>
       <c r="C6" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D6" s="1">
         <v>-7.98</v>
@@ -442,88 +442,88 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>917.93700000000001</v>
+        <v>931.01300000000003</v>
       </c>
       <c r="B7" s="1">
-        <v>1294.0150000000001</v>
+        <v>1294.777</v>
       </c>
       <c r="C7" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.95</v>
+        <v>-5.98</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>913.94500000000005</v>
+        <v>927.74400000000003</v>
       </c>
       <c r="B8" s="1">
-        <v>1200.829</v>
+        <v>1201.356</v>
       </c>
       <c r="C8" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.95</v>
+        <v>-3.98</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>910.35400000000004</v>
+        <v>924.98900000000003</v>
       </c>
       <c r="B9" s="1">
-        <v>1108.307</v>
+        <v>1107.9580000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>907.40599999999995</v>
+        <v>922.91899999999998</v>
       </c>
       <c r="B10" s="1">
-        <v>1014.427</v>
+        <v>1012.489</v>
       </c>
       <c r="C10" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>905.45799999999997</v>
+        <v>921.50699999999995</v>
       </c>
       <c r="B11" s="1">
-        <v>921.78599999999994</v>
+        <v>918.87099999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>903.96799999999996</v>
+        <v>920.96299999999997</v>
       </c>
       <c r="B12" s="1">
-        <v>827.35299999999995</v>
+        <v>823.61699999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
@@ -532,103 +532,103 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>903.1</v>
+        <v>921.03599999999994</v>
       </c>
       <c r="B13" s="1">
-        <v>731.95699999999999</v>
+        <v>728.60900000000004</v>
       </c>
       <c r="C13" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>903.05799999999999</v>
+        <v>921.91700000000003</v>
       </c>
       <c r="B14" s="1">
-        <v>636.52599999999995</v>
+        <v>630.04499999999996</v>
       </c>
       <c r="C14" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>7.98</v>
+        <v>7.97</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>903.62699999999995</v>
+        <v>923.09400000000005</v>
       </c>
       <c r="B15" s="1">
-        <v>538.75400000000002</v>
+        <v>531.66499999999996</v>
       </c>
       <c r="C15" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>904.69799999999998</v>
+        <v>925.52</v>
       </c>
       <c r="B16" s="1">
-        <v>439.36099999999999</v>
+        <v>432.774</v>
       </c>
       <c r="C16" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>12.02</v>
+        <v>11.97</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>906.5</v>
+        <v>928.37400000000002</v>
       </c>
       <c r="B17" s="1">
-        <v>340.745</v>
+        <v>331.99299999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>14</v>
+        <v>13.97</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>909.08299999999997</v>
+        <v>932.07399999999996</v>
       </c>
       <c r="B18" s="1">
-        <v>239.5</v>
+        <v>229.19</v>
       </c>
       <c r="C18" s="1">
-        <v>2505.3000000000002</v>
+        <v>2503.3000000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>15.98</v>
+        <v>15.95</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>888.80200000000002</v>
+        <v>904.404</v>
       </c>
       <c r="B19" s="1">
-        <v>1015.481</v>
+        <v>1015.519</v>
       </c>
       <c r="C19" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -637,58 +637,58 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>931.096</v>
+        <v>939.62199999999996</v>
       </c>
       <c r="B20" s="1">
-        <v>1778.2149999999999</v>
+        <v>1783.2260000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D20" s="1">
-        <v>-16.07</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>923.02099999999996</v>
+        <v>932.40899999999999</v>
       </c>
       <c r="B21" s="1">
-        <v>1673.559</v>
+        <v>1678.471</v>
       </c>
       <c r="C21" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D21" s="1">
-        <v>-13.98</v>
+        <v>-14</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>916.12400000000002</v>
+        <v>926.36500000000001</v>
       </c>
       <c r="B22" s="1">
-        <v>1576.9269999999999</v>
+        <v>1580.7260000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D22" s="1">
-        <v>-11.93</v>
+        <v>-11.95</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>909.89</v>
+        <v>920.99599999999998</v>
       </c>
       <c r="B23" s="1">
-        <v>1482.5550000000001</v>
+        <v>1485.819</v>
       </c>
       <c r="C23" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D23" s="1">
         <v>-9.98</v>
@@ -697,28 +697,28 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>904.14599999999996</v>
+        <v>916.08799999999997</v>
       </c>
       <c r="B24" s="1">
-        <v>1386.9190000000001</v>
+        <v>1390.7180000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D24" s="1">
-        <v>-7.95</v>
+        <v>-7.98</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>899.245</v>
+        <v>912.09699999999998</v>
       </c>
       <c r="B25" s="1">
-        <v>1293.6220000000001</v>
+        <v>1294.7429999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D25" s="1">
         <v>-5.95</v>
@@ -727,28 +727,28 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>895.25800000000004</v>
+        <v>908.95899999999995</v>
       </c>
       <c r="B26" s="1">
-        <v>1200.8030000000001</v>
+        <v>1202.492</v>
       </c>
       <c r="C26" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D26" s="1">
-        <v>-3.95</v>
+        <v>-4</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>891.77599999999995</v>
+        <v>906.15</v>
       </c>
       <c r="B27" s="1">
-        <v>1107.7909999999999</v>
+        <v>1108.2190000000001</v>
       </c>
       <c r="C27" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D27" s="1">
         <v>-1.98</v>
@@ -757,58 +757,58 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>888.81399999999996</v>
+        <v>904.32399999999996</v>
       </c>
       <c r="B28" s="1">
-        <v>1014.579</v>
+        <v>1013.706</v>
       </c>
       <c r="C28" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>886.71500000000003</v>
+        <v>902.73099999999999</v>
       </c>
       <c r="B29" s="1">
-        <v>921.851</v>
+        <v>919.45799999999997</v>
       </c>
       <c r="C29" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D29" s="1">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>885.29700000000003</v>
+        <v>902.12800000000004</v>
       </c>
       <c r="B30" s="1">
-        <v>827.99</v>
+        <v>825.36599999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D30" s="1">
-        <v>4.0199999999999996</v>
+        <v>3.97</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>884.36500000000001</v>
+        <v>902.09100000000001</v>
       </c>
       <c r="B31" s="1">
-        <v>733.52599999999995</v>
+        <v>728.32899999999995</v>
       </c>
       <c r="C31" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
@@ -817,88 +817,88 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>884.34299999999996</v>
+        <v>902.904</v>
       </c>
       <c r="B32" s="1">
-        <v>637.02599999999995</v>
+        <v>632.29899999999998</v>
       </c>
       <c r="C32" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D32" s="1">
-        <v>7.98</v>
+        <v>7.95</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>884.60500000000002</v>
+        <v>904.053</v>
       </c>
       <c r="B33" s="1">
-        <v>538.11599999999999</v>
+        <v>533.30600000000004</v>
       </c>
       <c r="C33" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D33" s="1">
-        <v>10.02</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>885.54499999999996</v>
+        <v>906.41099999999994</v>
       </c>
       <c r="B34" s="1">
-        <v>441.78100000000001</v>
+        <v>433.55399999999997</v>
       </c>
       <c r="C34" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D34" s="1">
-        <v>12</v>
+        <v>11.97</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>887.43899999999996</v>
+        <v>909.01300000000003</v>
       </c>
       <c r="B35" s="1">
-        <v>341.43200000000002</v>
+        <v>333.25400000000002</v>
       </c>
       <c r="C35" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D35" s="1">
-        <v>14</v>
+        <v>13.97</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>889.65899999999999</v>
+        <v>912.46600000000001</v>
       </c>
       <c r="B36" s="1">
-        <v>240.33</v>
+        <v>230.86199999999999</v>
       </c>
       <c r="C36" s="1">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="D36" s="1">
-        <v>15.98</v>
+        <v>15.95</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>871.61</v>
+        <v>886.73099999999999</v>
       </c>
       <c r="B37" s="1">
-        <v>1015.417</v>
+        <v>1015.247</v>
       </c>
       <c r="C37" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -907,28 +907,28 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>913.11900000000003</v>
+        <v>921.63300000000004</v>
       </c>
       <c r="B38" s="1">
-        <v>1776.5909999999999</v>
+        <v>1781.777</v>
       </c>
       <c r="C38" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D38" s="1">
-        <v>-16.07</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>905.23400000000004</v>
+        <v>914.54899999999998</v>
       </c>
       <c r="B39" s="1">
-        <v>1673.85</v>
+        <v>1677.6289999999999</v>
       </c>
       <c r="C39" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D39" s="1">
         <v>-13.98</v>
@@ -937,28 +937,28 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>898.45</v>
+        <v>908.60799999999995</v>
       </c>
       <c r="B40" s="1">
-        <v>1574.451</v>
+        <v>1580.5889999999999</v>
       </c>
       <c r="C40" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D40" s="1">
-        <v>-11.93</v>
+        <v>-11.98</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>892.34100000000001</v>
+        <v>903.24599999999998</v>
       </c>
       <c r="B41" s="1">
-        <v>1481.998</v>
+        <v>1484.8330000000001</v>
       </c>
       <c r="C41" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D41" s="1">
         <v>-9.98</v>
@@ -967,133 +967,133 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>886.9</v>
+        <v>898.85</v>
       </c>
       <c r="B42" s="1">
-        <v>1387.5170000000001</v>
+        <v>1389.259</v>
       </c>
       <c r="C42" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D42" s="1">
-        <v>-7.95</v>
+        <v>-7.98</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>881.875</v>
+        <v>894.79399999999998</v>
       </c>
       <c r="B43" s="1">
-        <v>1292.819</v>
+        <v>1294.0260000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D43" s="1">
-        <v>-5.95</v>
+        <v>-5.98</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>877.86</v>
+        <v>891.43100000000004</v>
       </c>
       <c r="B44" s="1">
-        <v>1201.288</v>
+        <v>1200.9880000000001</v>
       </c>
       <c r="C44" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.95</v>
+        <v>-3.98</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>874.51800000000003</v>
+        <v>888.82500000000005</v>
       </c>
       <c r="B45" s="1">
-        <v>1108.1959999999999</v>
+        <v>1107.4490000000001</v>
       </c>
       <c r="C45" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D45" s="1">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>871.471</v>
+        <v>886.64599999999996</v>
       </c>
       <c r="B46" s="1">
-        <v>1014.103</v>
+        <v>1012.4829999999999</v>
       </c>
       <c r="C46" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D46" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>869.38800000000003</v>
+        <v>885.5</v>
       </c>
       <c r="B47" s="1">
-        <v>922.08600000000001</v>
+        <v>920.22400000000005</v>
       </c>
       <c r="C47" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>867.93700000000001</v>
+        <v>884.66600000000005</v>
       </c>
       <c r="B48" s="1">
-        <v>826.76599999999996</v>
+        <v>824.07299999999998</v>
       </c>
       <c r="C48" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D48" s="1">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>866.98900000000003</v>
+        <v>884.62900000000002</v>
       </c>
       <c r="B49" s="1">
-        <v>733.875</v>
+        <v>728.96799999999996</v>
       </c>
       <c r="C49" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D49" s="1">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>866.66600000000005</v>
+        <v>885.41800000000001</v>
       </c>
       <c r="B50" s="1">
-        <v>637.75699999999995</v>
+        <v>631.57100000000003</v>
       </c>
       <c r="C50" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D50" s="1">
         <v>7.98</v>
@@ -1102,58 +1102,58 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>867.13900000000001</v>
+        <v>886.87099999999998</v>
       </c>
       <c r="B51" s="1">
-        <v>539.15200000000004</v>
+        <v>533.72699999999998</v>
       </c>
       <c r="C51" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D51" s="1">
-        <v>10.02</v>
+        <v>9.98</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>868.00699999999995</v>
+        <v>888.51400000000001</v>
       </c>
       <c r="B52" s="1">
-        <v>442.92</v>
+        <v>434.84699999999998</v>
       </c>
       <c r="C52" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D52" s="1">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>869.50300000000004</v>
+        <v>891.35299999999995</v>
       </c>
       <c r="B53" s="1">
-        <v>342.55200000000002</v>
+        <v>333.29</v>
       </c>
       <c r="C53" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D53" s="1">
-        <v>14</v>
+        <v>13.98</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>871.73299999999995</v>
+        <v>894.49699999999996</v>
       </c>
       <c r="B54" s="1">
-        <v>241.74199999999999</v>
+        <v>230.54599999999999</v>
       </c>
       <c r="C54" s="1">
-        <v>2704.7</v>
+        <v>2702.7</v>
       </c>
       <c r="D54" s="1">
         <v>15.98</v>
@@ -1162,13 +1162,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>855.60900000000004</v>
+        <v>870.61599999999999</v>
       </c>
       <c r="B55" s="1">
-        <v>1015.29</v>
+        <v>1015.003</v>
       </c>
       <c r="C55" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1177,28 +1177,28 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>896.49699999999996</v>
+        <v>904.99599999999998</v>
       </c>
       <c r="B56" s="1">
-        <v>1775.8510000000001</v>
+        <v>1780.69</v>
       </c>
       <c r="C56" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D56" s="1">
-        <v>-16.07</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>888.72</v>
+        <v>898.11300000000006</v>
       </c>
       <c r="B57" s="1">
-        <v>1672.47</v>
+        <v>1677.0930000000001</v>
       </c>
       <c r="C57" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D57" s="1">
         <v>-13.98</v>
@@ -1207,28 +1207,28 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>882.01199999999994</v>
+        <v>892.18899999999996</v>
       </c>
       <c r="B58" s="1">
-        <v>1573.9359999999999</v>
+        <v>1580.183</v>
       </c>
       <c r="C58" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D58" s="1">
-        <v>-11.93</v>
+        <v>-11.98</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>876.07799999999997</v>
+        <v>887.01199999999994</v>
       </c>
       <c r="B59" s="1">
-        <v>1481.5440000000001</v>
+        <v>1484.018</v>
       </c>
       <c r="C59" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D59" s="1">
         <v>-9.98</v>
@@ -1237,193 +1237,193 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>870.61900000000003</v>
+        <v>882.44899999999996</v>
       </c>
       <c r="B60" s="1">
-        <v>1385.838</v>
+        <v>1389.2809999999999</v>
       </c>
       <c r="C60" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D60" s="1">
-        <v>-7.95</v>
+        <v>-7.98</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>865.83699999999999</v>
+        <v>878.62199999999996</v>
       </c>
       <c r="B61" s="1">
-        <v>1293.4390000000001</v>
+        <v>1294.425</v>
       </c>
       <c r="C61" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D61" s="1">
-        <v>-5.95</v>
+        <v>-5.98</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>861.72199999999998</v>
+        <v>875.48</v>
       </c>
       <c r="B62" s="1">
-        <v>1200.298</v>
+        <v>1200.8330000000001</v>
       </c>
       <c r="C62" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D62" s="1">
-        <v>-3.95</v>
+        <v>-3.98</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>858.38300000000004</v>
+        <v>872.73</v>
       </c>
       <c r="B63" s="1">
-        <v>1108.231</v>
+        <v>1108.26</v>
       </c>
       <c r="C63" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>855.39200000000005</v>
+        <v>870.61</v>
       </c>
       <c r="B64" s="1">
-        <v>1014.034</v>
+        <v>1012.6609999999999</v>
       </c>
       <c r="C64" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D64" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>853.32799999999997</v>
+        <v>869.5</v>
       </c>
       <c r="B65" s="1">
-        <v>922.44899999999996</v>
+        <v>920.255</v>
       </c>
       <c r="C65" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D65" s="1">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>851.88</v>
+        <v>868.51599999999996</v>
       </c>
       <c r="B66" s="1">
-        <v>828.548</v>
+        <v>824.57799999999997</v>
       </c>
       <c r="C66" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D66" s="1">
-        <v>4.0199999999999996</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>850.81799999999998</v>
+        <v>868.5</v>
       </c>
       <c r="B67" s="1">
-        <v>733.99</v>
+        <v>729.59400000000005</v>
       </c>
       <c r="C67" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D67" s="1">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>850.51599999999996</v>
+        <v>869.20299999999997</v>
       </c>
       <c r="B68" s="1">
-        <v>638.85599999999999</v>
+        <v>632.53499999999997</v>
       </c>
       <c r="C68" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D68" s="1">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>850.94899999999996</v>
+        <v>870.29700000000003</v>
       </c>
       <c r="B69" s="1">
-        <v>541.05600000000004</v>
+        <v>534.59199999999998</v>
       </c>
       <c r="C69" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D69" s="1">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>851.57299999999998</v>
+        <v>872.25</v>
       </c>
       <c r="B70" s="1">
-        <v>443.649</v>
+        <v>435.65699999999998</v>
       </c>
       <c r="C70" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D70" s="1">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>852.79300000000001</v>
+        <v>874.87400000000002</v>
       </c>
       <c r="B71" s="1">
-        <v>343.00400000000002</v>
+        <v>334.733</v>
       </c>
       <c r="C71" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D71" s="1">
-        <v>14.02</v>
+        <v>13.98</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>855</v>
+        <v>877.71900000000005</v>
       </c>
       <c r="B72" s="1">
-        <v>243.55500000000001</v>
+        <v>232.25399999999999</v>
       </c>
       <c r="C72" s="1">
-        <v>2804.4</v>
+        <v>2802.4</v>
       </c>
       <c r="D72" s="1">
         <v>15.98</v>
@@ -1432,13 +1432,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>840.697</v>
+        <v>855.75599999999997</v>
       </c>
       <c r="B73" s="1">
-        <v>1015.53</v>
+        <v>1015.076</v>
       </c>
       <c r="C73" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1447,13 +1447,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>880.86800000000005</v>
+        <v>889.49800000000005</v>
       </c>
       <c r="B74" s="1">
-        <v>1774.529</v>
+        <v>1779.6869999999999</v>
       </c>
       <c r="C74" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D74" s="1">
         <v>-16.07</v>
@@ -1462,118 +1462,118 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>873.32899999999995</v>
+        <v>882.65499999999997</v>
       </c>
       <c r="B75" s="1">
-        <v>1671.0619999999999</v>
+        <v>1676.433</v>
       </c>
       <c r="C75" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D75" s="1">
-        <v>-13.95</v>
+        <v>-14</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>866.91200000000003</v>
+        <v>877.005</v>
       </c>
       <c r="B76" s="1">
-        <v>1574.8969999999999</v>
+        <v>1577.922</v>
       </c>
       <c r="C76" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D76" s="1">
-        <v>-11.98</v>
+        <v>-11.95</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>860.98</v>
+        <v>871.97799999999995</v>
       </c>
       <c r="B77" s="1">
-        <v>1479.9159999999999</v>
+        <v>1483.6949999999999</v>
       </c>
       <c r="C77" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D77" s="1">
-        <v>-9.9499999999999993</v>
+        <v>-10</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>855.66899999999998</v>
+        <v>867.36199999999997</v>
       </c>
       <c r="B78" s="1">
-        <v>1386.366</v>
+        <v>1387.2819999999999</v>
       </c>
       <c r="C78" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D78" s="1">
-        <v>-7.95</v>
+        <v>-7.98</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>850.90899999999999</v>
+        <v>863.56299999999999</v>
       </c>
       <c r="B79" s="1">
-        <v>1293.1279999999999</v>
+        <v>1293.0940000000001</v>
       </c>
       <c r="C79" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D79" s="1">
-        <v>-5.95</v>
+        <v>-5.98</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>846.82100000000003</v>
+        <v>860.49300000000005</v>
       </c>
       <c r="B80" s="1">
-        <v>1200.796</v>
+        <v>1199.287</v>
       </c>
       <c r="C80" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D80" s="1">
-        <v>-3.95</v>
+        <v>-3.98</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>843.45100000000002</v>
+        <v>857.65899999999999</v>
       </c>
       <c r="B81" s="1">
-        <v>1107.451</v>
+        <v>1107.2760000000001</v>
       </c>
       <c r="C81" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>840.63400000000001</v>
+        <v>855.68499999999995</v>
       </c>
       <c r="B82" s="1">
-        <v>1015.293</v>
+        <v>1011.599</v>
       </c>
       <c r="C82" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D82" s="1">
         <v>0.05</v>
@@ -1582,58 +1582,58 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>838.47799999999995</v>
+        <v>854.5</v>
       </c>
       <c r="B83" s="1">
-        <v>922.86300000000006</v>
+        <v>920.68700000000001</v>
       </c>
       <c r="C83" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D83" s="1">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>836.86800000000005</v>
+        <v>853.54200000000003</v>
       </c>
       <c r="B84" s="1">
-        <v>827.904</v>
+        <v>824.82100000000003</v>
       </c>
       <c r="C84" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D84" s="1">
-        <v>4.05</v>
+        <v>3.98</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>835.74400000000003</v>
+        <v>853.5</v>
       </c>
       <c r="B85" s="1">
-        <v>734.86099999999999</v>
+        <v>728.52499999999998</v>
       </c>
       <c r="C85" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D85" s="1">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>835.50800000000004</v>
+        <v>854.10699999999997</v>
       </c>
       <c r="B86" s="1">
-        <v>638.95899999999995</v>
+        <v>631.96400000000006</v>
       </c>
       <c r="C86" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D86" s="1">
         <v>7.98</v>
@@ -1642,73 +1642,73 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>835.86300000000006</v>
+        <v>855.14599999999996</v>
       </c>
       <c r="B87" s="1">
-        <v>540.70899999999995</v>
+        <v>533.89099999999996</v>
       </c>
       <c r="C87" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D87" s="1">
-        <v>10.02</v>
+        <v>9.98</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>836.16200000000003</v>
+        <v>857.02499999999998</v>
       </c>
       <c r="B88" s="1">
-        <v>444.15800000000002</v>
+        <v>435.18099999999998</v>
       </c>
       <c r="C88" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D88" s="1">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>837.55200000000002</v>
+        <v>859.20299999999997</v>
       </c>
       <c r="B89" s="1">
-        <v>345.03399999999999</v>
+        <v>333.76900000000001</v>
       </c>
       <c r="C89" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D89" s="1">
-        <v>14</v>
+        <v>13.98</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>839.51900000000001</v>
+        <v>862.28899999999999</v>
       </c>
       <c r="B90" s="1">
-        <v>244.28200000000001</v>
+        <v>231.959</v>
       </c>
       <c r="C90" s="1">
-        <v>2904.1</v>
+        <v>2902.1</v>
       </c>
       <c r="D90" s="1">
-        <v>16</v>
+        <v>15.95</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>826.67600000000004</v>
+        <v>841.947</v>
       </c>
       <c r="B91" s="1">
-        <v>1015.5</v>
+        <v>1015.139</v>
       </c>
       <c r="C91" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>866.58299999999997</v>
+        <v>875.01700000000005</v>
       </c>
       <c r="B92" s="1">
-        <v>1774.4849999999999</v>
+        <v>1779.3810000000001</v>
       </c>
       <c r="C92" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D92" s="1">
         <v>-16.07</v>
@@ -1732,58 +1732,58 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>859.06200000000001</v>
+        <v>868.27800000000002</v>
       </c>
       <c r="B93" s="1">
-        <v>1671.098</v>
+        <v>1675.8610000000001</v>
       </c>
       <c r="C93" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D93" s="1">
-        <v>-13.98</v>
+        <v>-14</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>852.77099999999996</v>
+        <v>862.81899999999996</v>
       </c>
       <c r="B94" s="1">
-        <v>1574.3579999999999</v>
+        <v>1578.021</v>
       </c>
       <c r="C94" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D94" s="1">
-        <v>-11.95</v>
+        <v>-11.98</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>846.84799999999996</v>
+        <v>857.85699999999997</v>
       </c>
       <c r="B95" s="1">
-        <v>1479.6389999999999</v>
+        <v>1482.163</v>
       </c>
       <c r="C95" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D95" s="1">
-        <v>-9.9499999999999993</v>
+        <v>-9.98</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>841.66700000000003</v>
+        <v>853.39</v>
       </c>
       <c r="B96" s="1">
-        <v>1386.2149999999999</v>
+        <v>1387.194</v>
       </c>
       <c r="C96" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D96" s="1">
         <v>-7.95</v>
@@ -1792,58 +1792,58 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>836.91899999999998</v>
+        <v>849.59199999999998</v>
       </c>
       <c r="B97" s="1">
-        <v>1293.0719999999999</v>
+        <v>1294.53</v>
       </c>
       <c r="C97" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D97" s="1">
-        <v>-5.95</v>
+        <v>-6</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>833.04100000000005</v>
+        <v>846.5</v>
       </c>
       <c r="B98" s="1">
-        <v>1200.6569999999999</v>
+        <v>1200.0999999999999</v>
       </c>
       <c r="C98" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D98" s="1">
-        <v>-3.95</v>
+        <v>-3.98</v>
       </c>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>829.68600000000004</v>
+        <v>843.77099999999996</v>
       </c>
       <c r="B99" s="1">
-        <v>1108.578</v>
+        <v>1106.989</v>
       </c>
       <c r="C99" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D99" s="1">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>826.65599999999995</v>
+        <v>841.84</v>
       </c>
       <c r="B100" s="1">
-        <v>1014.764</v>
+        <v>1012.126</v>
       </c>
       <c r="C100" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D100" s="1">
         <v>0.05</v>
@@ -1852,58 +1852,58 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>824.7</v>
+        <v>840.50699999999995</v>
       </c>
       <c r="B101" s="1">
-        <v>923.15200000000004</v>
+        <v>920.86500000000001</v>
       </c>
       <c r="C101" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D101" s="1">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>822.88</v>
+        <v>839.60299999999995</v>
       </c>
       <c r="B102" s="1">
-        <v>828.3</v>
+        <v>825.76400000000001</v>
       </c>
       <c r="C102" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D102" s="1">
-        <v>4.05</v>
+        <v>3.98</v>
       </c>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>821.96</v>
+        <v>839.5</v>
       </c>
       <c r="B103" s="1">
-        <v>735.66</v>
+        <v>728.96699999999998</v>
       </c>
       <c r="C103" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D103" s="1">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>821.51199999999994</v>
+        <v>839.95399999999995</v>
       </c>
       <c r="B104" s="1">
-        <v>639.64499999999998</v>
+        <v>632.98099999999999</v>
       </c>
       <c r="C104" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D104" s="1">
         <v>7.98</v>
@@ -1912,61 +1912,61 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>821.81700000000001</v>
+        <v>841.06600000000003</v>
       </c>
       <c r="B105" s="1">
-        <v>541.73400000000004</v>
+        <v>534.96699999999998</v>
       </c>
       <c r="C105" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D105" s="1">
-        <v>10.02</v>
+        <v>9.98</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>822.16</v>
+        <v>842.57799999999997</v>
       </c>
       <c r="B106" s="1">
-        <v>444.65499999999997</v>
+        <v>436.101</v>
       </c>
       <c r="C106" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D106" s="1">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>823.404</v>
+        <v>845</v>
       </c>
       <c r="B107" s="1">
-        <v>345.58199999999999</v>
+        <v>334.767</v>
       </c>
       <c r="C107" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D107" s="1">
-        <v>14</v>
+        <v>13.98</v>
       </c>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>825</v>
+        <v>847.82100000000003</v>
       </c>
       <c r="B108" s="1">
-        <v>245.03899999999999</v>
+        <v>232.94900000000001</v>
       </c>
       <c r="C108" s="1">
-        <v>3003.8</v>
+        <v>3001.8</v>
       </c>
       <c r="D108" s="1">
-        <v>15.98</v>
+        <v>15.95</v>
       </c>
       <c r="E108" s="1"/>
     </row>

--- a/Cam4calib.xlsx
+++ b/Cam4calib.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59122119-4503-4F66-8E0A-D49EC01590B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5B6FD3-A41E-4E5E-BDB4-7771B5082209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14914" yWindow="2743" windowWidth="16192" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17631" yWindow="3686" windowWidth="16192" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,20 +345,20 @@
   <dimension ref="A1:E419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>922.99900000000002</v>
+        <v>926.125</v>
       </c>
       <c r="B1" s="1">
-        <v>1015.177</v>
+        <v>1014.961</v>
       </c>
       <c r="C1" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -367,238 +367,238 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>959.25599999999997</v>
+        <v>963.60299999999995</v>
       </c>
       <c r="B2" s="1">
-        <v>1784.0640000000001</v>
+        <v>1788.0239999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D2" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>951.58900000000006</v>
+        <v>956.56600000000003</v>
       </c>
       <c r="B3" s="1">
-        <v>1679.02</v>
+        <v>1692.296</v>
       </c>
       <c r="C3" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-13.98</v>
+        <v>-14.08</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>945.46799999999996</v>
+        <v>949.80100000000004</v>
       </c>
       <c r="B4" s="1">
-        <v>1581.357</v>
+        <v>1588.279</v>
       </c>
       <c r="C4" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-11.98</v>
+        <v>-12.08</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>939.88099999999997</v>
+        <v>943.71400000000006</v>
       </c>
       <c r="B5" s="1">
-        <v>1484.6980000000001</v>
+        <v>1486.9179999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-9.9499999999999993</v>
+        <v>-10.08</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>935.12599999999998</v>
+        <v>938.55700000000002</v>
       </c>
       <c r="B6" s="1">
-        <v>1390.617</v>
+        <v>1385.8209999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-7.98</v>
+        <v>-8.08</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>931.01300000000003</v>
+        <v>934.06200000000001</v>
       </c>
       <c r="B7" s="1">
-        <v>1294.777</v>
+        <v>1284.03</v>
       </c>
       <c r="C7" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.98</v>
+        <v>-6.08</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>927.74400000000003</v>
+        <v>930.52700000000004</v>
       </c>
       <c r="B8" s="1">
-        <v>1201.356</v>
+        <v>1183.5909999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.98</v>
+        <v>-4.08</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>924.98900000000003</v>
+        <v>927.904</v>
       </c>
       <c r="B9" s="1">
-        <v>1107.9580000000001</v>
+        <v>1082.1089999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-2</v>
+        <v>-2.08</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>922.91899999999998</v>
+        <v>925.91499999999996</v>
       </c>
       <c r="B10" s="1">
-        <v>1012.489</v>
+        <v>982.93799999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>0.02</v>
+        <v>-0.08</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>921.50699999999995</v>
+        <v>924.53300000000002</v>
       </c>
       <c r="B11" s="1">
-        <v>918.87099999999998</v>
+        <v>881.41399999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>920.96299999999997</v>
+        <v>924</v>
       </c>
       <c r="B12" s="1">
-        <v>823.61699999999996</v>
+        <v>780.12699999999995</v>
       </c>
       <c r="C12" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>3.92</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>921.03599999999994</v>
+        <v>924.45699999999999</v>
       </c>
       <c r="B13" s="1">
-        <v>728.60900000000004</v>
+        <v>679.39300000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>5.97</v>
+        <v>5.92</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>921.91700000000003</v>
+        <v>925.59400000000005</v>
       </c>
       <c r="B14" s="1">
-        <v>630.04499999999996</v>
+        <v>579.15</v>
       </c>
       <c r="C14" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>7.97</v>
+        <v>7.92</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>923.09400000000005</v>
+        <v>927.54700000000003</v>
       </c>
       <c r="B15" s="1">
-        <v>531.66499999999996</v>
+        <v>477.93</v>
       </c>
       <c r="C15" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>9.9700000000000006</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>925.52</v>
+        <v>930.24099999999999</v>
       </c>
       <c r="B16" s="1">
-        <v>432.774</v>
+        <v>376.18200000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>11.97</v>
+        <v>11.92</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>928.37400000000002</v>
+        <v>933.61699999999996</v>
       </c>
       <c r="B17" s="1">
-        <v>331.99299999999999</v>
+        <v>272.60899999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D17" s="1">
         <v>13.97</v>
@@ -607,28 +607,28 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>932.07399999999996</v>
+        <v>937.846</v>
       </c>
       <c r="B18" s="1">
-        <v>229.19</v>
+        <v>168.37100000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>2503.3000000000002</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>15.95</v>
+        <v>15.97</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>904.404</v>
+        <v>907.35400000000004</v>
       </c>
       <c r="B19" s="1">
-        <v>1015.519</v>
+        <v>1015.4349999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -637,253 +637,253 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>939.62199999999996</v>
+        <v>946.87300000000005</v>
       </c>
       <c r="B20" s="1">
-        <v>1783.2260000000001</v>
+        <v>1823.058</v>
       </c>
       <c r="C20" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D20" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>932.40899999999999</v>
+        <v>939.82500000000005</v>
       </c>
       <c r="B21" s="1">
-        <v>1678.471</v>
+        <v>1728.2170000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D21" s="1">
-        <v>-14</v>
+        <v>-14.07</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>926.36500000000001</v>
+        <v>932.86900000000003</v>
       </c>
       <c r="B22" s="1">
-        <v>1580.7260000000001</v>
+        <v>1625.4839999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D22" s="1">
-        <v>-11.95</v>
+        <v>-12.1</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>920.99599999999998</v>
+        <v>926.702</v>
       </c>
       <c r="B23" s="1">
-        <v>1485.819</v>
+        <v>1522.644</v>
       </c>
       <c r="C23" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D23" s="1">
-        <v>-9.98</v>
+        <v>-10.1</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>916.08799999999997</v>
+        <v>921.40800000000002</v>
       </c>
       <c r="B24" s="1">
-        <v>1390.7180000000001</v>
+        <v>1421.28</v>
       </c>
       <c r="C24" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D24" s="1">
-        <v>-7.98</v>
+        <v>-8.07</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>912.09699999999998</v>
+        <v>916.71400000000006</v>
       </c>
       <c r="B25" s="1">
-        <v>1294.7429999999999</v>
+        <v>1321.5029999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D25" s="1">
-        <v>-5.95</v>
+        <v>-6.1</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>908.95899999999995</v>
+        <v>912.97900000000004</v>
       </c>
       <c r="B26" s="1">
-        <v>1202.492</v>
+        <v>1220.499</v>
       </c>
       <c r="C26" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D26" s="1">
-        <v>-4</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>906.15</v>
+        <v>909.96900000000005</v>
       </c>
       <c r="B27" s="1">
-        <v>1108.2190000000001</v>
+        <v>1119.7840000000001</v>
       </c>
       <c r="C27" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D27" s="1">
-        <v>-1.98</v>
+        <v>-2.1</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>904.32399999999996</v>
+        <v>907.59799999999996</v>
       </c>
       <c r="B28" s="1">
-        <v>1013.706</v>
+        <v>1019.811</v>
       </c>
       <c r="C28" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>902.73099999999999</v>
+        <v>905.96</v>
       </c>
       <c r="B29" s="1">
-        <v>919.45799999999997</v>
+        <v>919.26</v>
       </c>
       <c r="C29" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D29" s="1">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>902.12800000000004</v>
+        <v>905.09199999999998</v>
       </c>
       <c r="B30" s="1">
-        <v>825.36599999999999</v>
+        <v>817.71400000000006</v>
       </c>
       <c r="C30" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D30" s="1">
-        <v>3.97</v>
+        <v>3.9</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>902.09100000000001</v>
+        <v>905.06200000000001</v>
       </c>
       <c r="B31" s="1">
-        <v>728.32899999999995</v>
+        <v>717.58100000000002</v>
       </c>
       <c r="C31" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D31" s="1">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>902.904</v>
+        <v>906</v>
       </c>
       <c r="B32" s="1">
-        <v>632.29899999999998</v>
+        <v>616.05399999999997</v>
       </c>
       <c r="C32" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D32" s="1">
-        <v>7.95</v>
+        <v>7.93</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>904.053</v>
+        <v>907.57500000000005</v>
       </c>
       <c r="B33" s="1">
-        <v>533.30600000000004</v>
+        <v>515.12</v>
       </c>
       <c r="C33" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D33" s="1">
-        <v>9.9700000000000006</v>
+        <v>9.93</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>906.41099999999994</v>
+        <v>909.93399999999997</v>
       </c>
       <c r="B34" s="1">
-        <v>433.55399999999997</v>
+        <v>414.10599999999999</v>
       </c>
       <c r="C34" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D34" s="1">
-        <v>11.97</v>
+        <v>11.95</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>909.01300000000003</v>
+        <v>912.58699999999999</v>
       </c>
       <c r="B35" s="1">
-        <v>333.25400000000002</v>
+        <v>312.005</v>
       </c>
       <c r="C35" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D35" s="1">
-        <v>13.97</v>
+        <v>13.95</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>912.46600000000001</v>
+        <v>916.40200000000004</v>
       </c>
       <c r="B36" s="1">
-        <v>230.86199999999999</v>
+        <v>207.761</v>
       </c>
       <c r="C36" s="1">
-        <v>2603</v>
+        <v>2600.5</v>
       </c>
       <c r="D36" s="1">
         <v>15.95</v>
@@ -892,13 +892,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>886.73099999999999</v>
+        <v>890.01099999999997</v>
       </c>
       <c r="B37" s="1">
-        <v>1015.247</v>
+        <v>1015.314</v>
       </c>
       <c r="C37" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -907,223 +907,223 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>921.63300000000004</v>
+        <v>928.77300000000002</v>
       </c>
       <c r="B38" s="1">
-        <v>1781.777</v>
+        <v>1821.6469999999999</v>
       </c>
       <c r="C38" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D38" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>914.54899999999998</v>
+        <v>921.79700000000003</v>
       </c>
       <c r="B39" s="1">
-        <v>1677.6289999999999</v>
+        <v>1727.0530000000001</v>
       </c>
       <c r="C39" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D39" s="1">
-        <v>-13.98</v>
+        <v>-14.1</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>908.60799999999995</v>
+        <v>914.90499999999997</v>
       </c>
       <c r="B40" s="1">
-        <v>1580.5889999999999</v>
+        <v>1622.4570000000001</v>
       </c>
       <c r="C40" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D40" s="1">
-        <v>-11.98</v>
+        <v>-12.07</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>903.24599999999998</v>
+        <v>908.95600000000002</v>
       </c>
       <c r="B41" s="1">
-        <v>1484.8330000000001</v>
+        <v>1522.0050000000001</v>
       </c>
       <c r="C41" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D41" s="1">
-        <v>-9.98</v>
+        <v>-10.1</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>898.85</v>
+        <v>903.64400000000001</v>
       </c>
       <c r="B42" s="1">
-        <v>1389.259</v>
+        <v>1420.732</v>
       </c>
       <c r="C42" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D42" s="1">
-        <v>-7.98</v>
+        <v>-8.1</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>894.79399999999998</v>
+        <v>899.11500000000001</v>
       </c>
       <c r="B43" s="1">
-        <v>1294.0260000000001</v>
+        <v>1320.2750000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D43" s="1">
-        <v>-5.98</v>
+        <v>-6.1</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>891.43100000000004</v>
+        <v>895.26900000000001</v>
       </c>
       <c r="B44" s="1">
-        <v>1200.9880000000001</v>
+        <v>1219.0119999999999</v>
       </c>
       <c r="C44" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.98</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>888.82500000000005</v>
+        <v>892.24800000000005</v>
       </c>
       <c r="B45" s="1">
-        <v>1107.4490000000001</v>
+        <v>1118.9780000000001</v>
       </c>
       <c r="C45" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D45" s="1">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>886.64599999999996</v>
+        <v>890.05700000000002</v>
       </c>
       <c r="B46" s="1">
-        <v>1012.4829999999999</v>
+        <v>1018.561</v>
       </c>
       <c r="C46" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D46" s="1">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>885.5</v>
+        <v>888.5</v>
       </c>
       <c r="B47" s="1">
-        <v>920.22400000000005</v>
+        <v>917.86900000000003</v>
       </c>
       <c r="C47" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D47" s="1">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>884.66600000000005</v>
+        <v>887.89599999999996</v>
       </c>
       <c r="B48" s="1">
-        <v>824.07299999999998</v>
+        <v>817.54700000000003</v>
       </c>
       <c r="C48" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D48" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>884.62900000000002</v>
+        <v>887.9</v>
       </c>
       <c r="B49" s="1">
-        <v>728.96799999999996</v>
+        <v>716.95600000000002</v>
       </c>
       <c r="C49" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D49" s="1">
-        <v>5.98</v>
+        <v>5.9</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>885.41800000000001</v>
+        <v>888.48299999999995</v>
       </c>
       <c r="B50" s="1">
-        <v>631.57100000000003</v>
+        <v>615.56399999999996</v>
       </c>
       <c r="C50" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D50" s="1">
-        <v>7.98</v>
+        <v>7.93</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>886.87099999999998</v>
+        <v>889.98699999999997</v>
       </c>
       <c r="B51" s="1">
-        <v>533.72699999999998</v>
+        <v>514.62699999999995</v>
       </c>
       <c r="C51" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D51" s="1">
-        <v>9.98</v>
+        <v>9.93</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>888.51400000000001</v>
+        <v>891.98500000000001</v>
       </c>
       <c r="B52" s="1">
-        <v>434.84699999999998</v>
+        <v>413.65800000000002</v>
       </c>
       <c r="C52" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D52" s="1">
         <v>11.95</v>
@@ -1132,43 +1132,43 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>891.35299999999995</v>
+        <v>894.67600000000004</v>
       </c>
       <c r="B53" s="1">
-        <v>333.29</v>
+        <v>311.69799999999998</v>
       </c>
       <c r="C53" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D53" s="1">
-        <v>13.98</v>
+        <v>13.95</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>894.49699999999996</v>
+        <v>898.21600000000001</v>
       </c>
       <c r="B54" s="1">
-        <v>230.54599999999999</v>
+        <v>207.54400000000001</v>
       </c>
       <c r="C54" s="1">
-        <v>2702.7</v>
+        <v>2700.2</v>
       </c>
       <c r="D54" s="1">
-        <v>15.98</v>
+        <v>15.97</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>870.61599999999999</v>
+        <v>873.93600000000004</v>
       </c>
       <c r="B55" s="1">
-        <v>1015.003</v>
+        <v>1015.2190000000001</v>
       </c>
       <c r="C55" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1177,223 +1177,223 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>904.99599999999998</v>
+        <v>912.00099999999998</v>
       </c>
       <c r="B56" s="1">
-        <v>1780.69</v>
+        <v>1821.643</v>
       </c>
       <c r="C56" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D56" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>898.11300000000006</v>
+        <v>905.13699999999994</v>
       </c>
       <c r="B57" s="1">
-        <v>1677.0930000000001</v>
+        <v>1726.567</v>
       </c>
       <c r="C57" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D57" s="1">
-        <v>-13.98</v>
+        <v>-14.1</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>892.18899999999996</v>
+        <v>898.38</v>
       </c>
       <c r="B58" s="1">
-        <v>1580.183</v>
+        <v>1623.0039999999999</v>
       </c>
       <c r="C58" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D58" s="1">
-        <v>-11.98</v>
+        <v>-12.07</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>887.01199999999994</v>
+        <v>892.61500000000001</v>
       </c>
       <c r="B59" s="1">
-        <v>1484.018</v>
+        <v>1522.0519999999999</v>
       </c>
       <c r="C59" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D59" s="1">
-        <v>-9.98</v>
+        <v>-10.1</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>882.44899999999996</v>
+        <v>887.46100000000001</v>
       </c>
       <c r="B60" s="1">
-        <v>1389.2809999999999</v>
+        <v>1420.51</v>
       </c>
       <c r="C60" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D60" s="1">
-        <v>-7.98</v>
+        <v>-8.1</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>878.62199999999996</v>
+        <v>883.03200000000004</v>
       </c>
       <c r="B61" s="1">
-        <v>1294.425</v>
+        <v>1320.364</v>
       </c>
       <c r="C61" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D61" s="1">
-        <v>-5.98</v>
+        <v>-6.1</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>875.48</v>
+        <v>879.09400000000005</v>
       </c>
       <c r="B62" s="1">
-        <v>1200.8330000000001</v>
+        <v>1219.396</v>
       </c>
       <c r="C62" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D62" s="1">
-        <v>-3.98</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>872.73</v>
+        <v>876.08500000000004</v>
       </c>
       <c r="B63" s="1">
-        <v>1108.26</v>
+        <v>1118.732</v>
       </c>
       <c r="C63" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D63" s="1">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>870.61</v>
+        <v>873.99699999999996</v>
       </c>
       <c r="B64" s="1">
-        <v>1012.6609999999999</v>
+        <v>1019.467</v>
       </c>
       <c r="C64" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D64" s="1">
-        <v>0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>869.5</v>
+        <v>872.43899999999996</v>
       </c>
       <c r="B65" s="1">
-        <v>920.255</v>
+        <v>918.68799999999999</v>
       </c>
       <c r="C65" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D65" s="1">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>868.51599999999996</v>
+        <v>871.80799999999999</v>
       </c>
       <c r="B66" s="1">
-        <v>824.57799999999997</v>
+        <v>818.596</v>
       </c>
       <c r="C66" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D66" s="1">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>868.5</v>
+        <v>871.69299999999998</v>
       </c>
       <c r="B67" s="1">
-        <v>729.59400000000005</v>
+        <v>717.976</v>
       </c>
       <c r="C67" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D67" s="1">
-        <v>5.98</v>
+        <v>5.9</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>869.20299999999997</v>
+        <v>872.03700000000003</v>
       </c>
       <c r="B68" s="1">
-        <v>632.53499999999997</v>
+        <v>616.9</v>
       </c>
       <c r="C68" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D68" s="1">
-        <v>7.98</v>
+        <v>7.93</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>870.29700000000003</v>
+        <v>873.60400000000004</v>
       </c>
       <c r="B69" s="1">
-        <v>534.59199999999998</v>
+        <v>515.73299999999995</v>
       </c>
       <c r="C69" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D69" s="1">
-        <v>9.98</v>
+        <v>9.93</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>872.25</v>
+        <v>875.53399999999999</v>
       </c>
       <c r="B70" s="1">
-        <v>435.65699999999998</v>
+        <v>414.45100000000002</v>
       </c>
       <c r="C70" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D70" s="1">
         <v>11.95</v>
@@ -1402,43 +1402,43 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>874.87400000000002</v>
+        <v>878.40300000000002</v>
       </c>
       <c r="B71" s="1">
-        <v>334.733</v>
+        <v>312.52999999999997</v>
       </c>
       <c r="C71" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D71" s="1">
-        <v>13.98</v>
+        <v>13.95</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>877.71900000000005</v>
+        <v>881.41700000000003</v>
       </c>
       <c r="B72" s="1">
-        <v>232.25399999999999</v>
+        <v>209.196</v>
       </c>
       <c r="C72" s="1">
-        <v>2802.4</v>
+        <v>2799.9</v>
       </c>
       <c r="D72" s="1">
-        <v>15.98</v>
+        <v>15.97</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>855.75599999999997</v>
+        <v>858.91300000000001</v>
       </c>
       <c r="B73" s="1">
-        <v>1015.076</v>
+        <v>1015.312</v>
       </c>
       <c r="C73" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1447,223 +1447,223 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>889.49800000000005</v>
+        <v>896.03700000000003</v>
       </c>
       <c r="B74" s="1">
-        <v>1779.6869999999999</v>
+        <v>1819.271</v>
       </c>
       <c r="C74" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D74" s="1">
-        <v>-16.07</v>
+        <v>-15.9</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>882.65499999999997</v>
+        <v>889.62900000000002</v>
       </c>
       <c r="B75" s="1">
-        <v>1676.433</v>
+        <v>1724.83</v>
       </c>
       <c r="C75" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D75" s="1">
-        <v>-14</v>
+        <v>-14.1</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>877.005</v>
+        <v>883.06700000000001</v>
       </c>
       <c r="B76" s="1">
-        <v>1577.922</v>
+        <v>1621.6590000000001</v>
       </c>
       <c r="C76" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D76" s="1">
-        <v>-11.95</v>
+        <v>-12.08</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>871.97799999999995</v>
+        <v>877.47</v>
       </c>
       <c r="B77" s="1">
-        <v>1483.6949999999999</v>
+        <v>1520.89</v>
       </c>
       <c r="C77" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D77" s="1">
-        <v>-10</v>
+        <v>-10.1</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>867.36199999999997</v>
+        <v>872.24</v>
       </c>
       <c r="B78" s="1">
-        <v>1387.2819999999999</v>
+        <v>1419.481</v>
       </c>
       <c r="C78" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D78" s="1">
-        <v>-7.98</v>
+        <v>-8.1</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>863.56299999999999</v>
+        <v>867.99599999999998</v>
       </c>
       <c r="B79" s="1">
-        <v>1293.0940000000001</v>
+        <v>1319.373</v>
       </c>
       <c r="C79" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D79" s="1">
-        <v>-5.98</v>
+        <v>-6.1</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>860.49300000000005</v>
+        <v>864.06600000000003</v>
       </c>
       <c r="B80" s="1">
-        <v>1199.287</v>
+        <v>1218.3879999999999</v>
       </c>
       <c r="C80" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D80" s="1">
-        <v>-3.98</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>857.65899999999999</v>
+        <v>861.16600000000005</v>
       </c>
       <c r="B81" s="1">
-        <v>1107.2760000000001</v>
+        <v>1117.8710000000001</v>
       </c>
       <c r="C81" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D81" s="1">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>855.68499999999995</v>
+        <v>858.99099999999999</v>
       </c>
       <c r="B82" s="1">
-        <v>1011.599</v>
+        <v>1018.205</v>
       </c>
       <c r="C82" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D82" s="1">
-        <v>0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>854.5</v>
+        <v>857.5</v>
       </c>
       <c r="B83" s="1">
-        <v>920.68700000000001</v>
+        <v>918.01900000000001</v>
       </c>
       <c r="C83" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D83" s="1">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>853.54200000000003</v>
+        <v>856.77</v>
       </c>
       <c r="B84" s="1">
-        <v>824.82100000000003</v>
+        <v>817.52700000000004</v>
       </c>
       <c r="C84" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D84" s="1">
-        <v>3.98</v>
+        <v>3.9</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>853.5</v>
+        <v>856.74900000000002</v>
       </c>
       <c r="B85" s="1">
-        <v>728.52499999999998</v>
+        <v>716.94</v>
       </c>
       <c r="C85" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D85" s="1">
-        <v>5.98</v>
+        <v>5.9</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>854.10699999999997</v>
+        <v>857.00400000000002</v>
       </c>
       <c r="B86" s="1">
-        <v>631.96400000000006</v>
+        <v>616.16800000000001</v>
       </c>
       <c r="C86" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D86" s="1">
-        <v>7.98</v>
+        <v>7.92</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>855.14599999999996</v>
+        <v>858.42700000000002</v>
       </c>
       <c r="B87" s="1">
-        <v>533.89099999999996</v>
+        <v>515.62599999999998</v>
       </c>
       <c r="C87" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D87" s="1">
-        <v>9.98</v>
+        <v>9.92</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>857.02499999999998</v>
+        <v>860.19299999999998</v>
       </c>
       <c r="B88" s="1">
-        <v>435.18099999999998</v>
+        <v>413.87</v>
       </c>
       <c r="C88" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D88" s="1">
         <v>11.95</v>
@@ -1672,302 +1672,158 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>859.20299999999997</v>
+        <v>862.62</v>
       </c>
       <c r="B89" s="1">
-        <v>333.76900000000001</v>
+        <v>312.12299999999999</v>
       </c>
       <c r="C89" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D89" s="1">
-        <v>13.98</v>
+        <v>13.95</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>862.28899999999999</v>
+        <v>865.83600000000001</v>
       </c>
       <c r="B90" s="1">
-        <v>231.959</v>
+        <v>208.52099999999999</v>
       </c>
       <c r="C90" s="1">
-        <v>2902.1</v>
+        <v>2899.6</v>
       </c>
       <c r="D90" s="1">
-        <v>15.95</v>
+        <v>15.97</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>841.947</v>
-      </c>
-      <c r="B91" s="1">
-        <v>1015.139</v>
-      </c>
-      <c r="C91" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>875.01700000000005</v>
-      </c>
-      <c r="B92" s="1">
-        <v>1779.3810000000001</v>
-      </c>
-      <c r="C92" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D92" s="1">
-        <v>-16.07</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>868.27800000000002</v>
-      </c>
-      <c r="B93" s="1">
-        <v>1675.8610000000001</v>
-      </c>
-      <c r="C93" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D93" s="1">
-        <v>-14</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>862.81899999999996</v>
-      </c>
-      <c r="B94" s="1">
-        <v>1578.021</v>
-      </c>
-      <c r="C94" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D94" s="1">
-        <v>-11.98</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>857.85699999999997</v>
-      </c>
-      <c r="B95" s="1">
-        <v>1482.163</v>
-      </c>
-      <c r="C95" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D95" s="1">
-        <v>-9.98</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>853.39</v>
-      </c>
-      <c r="B96" s="1">
-        <v>1387.194</v>
-      </c>
-      <c r="C96" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D96" s="1">
-        <v>-7.95</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>849.59199999999998</v>
-      </c>
-      <c r="B97" s="1">
-        <v>1294.53</v>
-      </c>
-      <c r="C97" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D97" s="1">
-        <v>-6</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>846.5</v>
-      </c>
-      <c r="B98" s="1">
-        <v>1200.0999999999999</v>
-      </c>
-      <c r="C98" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D98" s="1">
-        <v>-3.98</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>843.77099999999996</v>
-      </c>
-      <c r="B99" s="1">
-        <v>1106.989</v>
-      </c>
-      <c r="C99" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D99" s="1">
-        <v>-2</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <v>841.84</v>
-      </c>
-      <c r="B100" s="1">
-        <v>1012.126</v>
-      </c>
-      <c r="C100" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0.05</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
-        <v>840.50699999999995</v>
-      </c>
-      <c r="B101" s="1">
-        <v>920.86500000000001</v>
-      </c>
-      <c r="C101" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D101" s="1">
-        <v>1.98</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
-        <v>839.60299999999995</v>
-      </c>
-      <c r="B102" s="1">
-        <v>825.76400000000001</v>
-      </c>
-      <c r="C102" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D102" s="1">
-        <v>3.98</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>839.5</v>
-      </c>
-      <c r="B103" s="1">
-        <v>728.96699999999998</v>
-      </c>
-      <c r="C103" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D103" s="1">
-        <v>5.98</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>839.95399999999995</v>
-      </c>
-      <c r="B104" s="1">
-        <v>632.98099999999999</v>
-      </c>
-      <c r="C104" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D104" s="1">
-        <v>7.98</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>841.06600000000003</v>
-      </c>
-      <c r="B105" s="1">
-        <v>534.96699999999998</v>
-      </c>
-      <c r="C105" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D105" s="1">
-        <v>9.98</v>
-      </c>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>842.57799999999997</v>
-      </c>
-      <c r="B106" s="1">
-        <v>436.101</v>
-      </c>
-      <c r="C106" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D106" s="1">
-        <v>11.95</v>
-      </c>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>845</v>
-      </c>
-      <c r="B107" s="1">
-        <v>334.767</v>
-      </c>
-      <c r="C107" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D107" s="1">
-        <v>13.98</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>847.82100000000003</v>
-      </c>
-      <c r="B108" s="1">
-        <v>232.94900000000001</v>
-      </c>
-      <c r="C108" s="1">
-        <v>3001.8</v>
-      </c>
-      <c r="D108" s="1">
-        <v>15.95</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">

--- a/Cam4calib.xlsx
+++ b/Cam4calib.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5B6FD3-A41E-4E5E-BDB4-7771B5082209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB544F7-2097-4F0C-91E1-FD008722A7BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17631" yWindow="3686" windowWidth="16192" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14854" yWindow="3909" windowWidth="9266" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,13 +352,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>926.125</v>
+        <v>948.52599999999995</v>
       </c>
       <c r="B1" s="1">
-        <v>1014.961</v>
+        <v>1015.021</v>
       </c>
       <c r="C1" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -367,268 +367,268 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>963.60299999999995</v>
+        <v>978.96</v>
       </c>
       <c r="B2" s="1">
-        <v>1788.0239999999999</v>
+        <v>1780.289</v>
       </c>
       <c r="C2" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-15.9</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>956.56600000000003</v>
+        <v>972.19399999999996</v>
       </c>
       <c r="B3" s="1">
-        <v>1692.296</v>
+        <v>1676.239</v>
       </c>
       <c r="C3" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.08</v>
+        <v>-13.98</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>949.80100000000004</v>
+        <v>966.72900000000004</v>
       </c>
       <c r="B4" s="1">
-        <v>1588.279</v>
+        <v>1579.3050000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-12.08</v>
+        <v>-11.95</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>943.71400000000006</v>
+        <v>961.99800000000005</v>
       </c>
       <c r="B5" s="1">
-        <v>1486.9179999999999</v>
+        <v>1485.1189999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-10.08</v>
+        <v>-9.98</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>938.55700000000002</v>
+        <v>957.74</v>
       </c>
       <c r="B6" s="1">
-        <v>1385.8209999999999</v>
+        <v>1389.595</v>
       </c>
       <c r="C6" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-8.08</v>
+        <v>-7.98</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>934.06200000000001</v>
+        <v>954.48099999999999</v>
       </c>
       <c r="B7" s="1">
-        <v>1284.03</v>
+        <v>1295.2180000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-6.08</v>
+        <v>-5.98</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>930.52700000000004</v>
+        <v>951.57899999999995</v>
       </c>
       <c r="B8" s="1">
-        <v>1183.5909999999999</v>
+        <v>1201.319</v>
       </c>
       <c r="C8" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-4.08</v>
+        <v>-3.98</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>927.904</v>
+        <v>949.60400000000004</v>
       </c>
       <c r="B9" s="1">
-        <v>1082.1089999999999</v>
+        <v>1107.2809999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-2.08</v>
+        <v>-1.98</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>925.91499999999996</v>
+        <v>948.52800000000002</v>
       </c>
       <c r="B10" s="1">
-        <v>982.93799999999999</v>
+        <v>1014.073</v>
       </c>
       <c r="C10" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>924.53300000000002</v>
+        <v>947.97400000000005</v>
       </c>
       <c r="B11" s="1">
-        <v>881.41399999999999</v>
+        <v>919.78599999999994</v>
       </c>
       <c r="C11" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>924</v>
+        <v>948.16899999999998</v>
       </c>
       <c r="B12" s="1">
-        <v>780.12699999999995</v>
+        <v>824.92899999999997</v>
       </c>
       <c r="C12" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>3.92</v>
+        <v>3.98</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>924.45699999999999</v>
+        <v>948.851</v>
       </c>
       <c r="B13" s="1">
-        <v>679.39300000000003</v>
+        <v>728.98299999999995</v>
       </c>
       <c r="C13" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>5.92</v>
+        <v>6.05</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>925.59400000000005</v>
+        <v>950.5</v>
       </c>
       <c r="B14" s="1">
-        <v>579.15</v>
+        <v>635.83299999999997</v>
       </c>
       <c r="C14" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>7.92</v>
+        <v>8.02</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>927.54700000000003</v>
+        <v>952.72900000000004</v>
       </c>
       <c r="B15" s="1">
-        <v>477.93</v>
+        <v>539.84299999999996</v>
       </c>
       <c r="C15" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>9.9499999999999993</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>930.24099999999999</v>
+        <v>955.75</v>
       </c>
       <c r="B16" s="1">
-        <v>376.18200000000002</v>
+        <v>442.68599999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>11.92</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>933.61699999999996</v>
+        <v>959.61900000000003</v>
       </c>
       <c r="B17" s="1">
-        <v>272.60899999999998</v>
+        <v>343.56799999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>13.97</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>937.846</v>
+        <v>964.04399999999998</v>
       </c>
       <c r="B18" s="1">
-        <v>168.37100000000001</v>
+        <v>243.971</v>
       </c>
       <c r="C18" s="1">
-        <v>2500.8000000000002</v>
+        <v>2500.6999999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>15.97</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>907.35400000000004</v>
+        <v>929.90700000000004</v>
       </c>
       <c r="B19" s="1">
-        <v>1015.4349999999999</v>
+        <v>1015.522</v>
       </c>
       <c r="C19" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -637,268 +637,268 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>946.87300000000005</v>
+        <v>959.52499999999998</v>
       </c>
       <c r="B20" s="1">
-        <v>1823.058</v>
+        <v>1778.702</v>
       </c>
       <c r="C20" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D20" s="1">
-        <v>-15.9</v>
+        <v>-16.07</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>939.82500000000005</v>
+        <v>952.96600000000001</v>
       </c>
       <c r="B21" s="1">
-        <v>1728.2170000000001</v>
+        <v>1675.184</v>
       </c>
       <c r="C21" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D21" s="1">
-        <v>-14.07</v>
+        <v>-13.98</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>932.86900000000003</v>
+        <v>947.40700000000004</v>
       </c>
       <c r="B22" s="1">
-        <v>1625.4839999999999</v>
+        <v>1577.18</v>
       </c>
       <c r="C22" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D22" s="1">
-        <v>-12.1</v>
+        <v>-11.95</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>926.702</v>
+        <v>942.92499999999995</v>
       </c>
       <c r="B23" s="1">
-        <v>1522.644</v>
+        <v>1482.8009999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D23" s="1">
-        <v>-10.1</v>
+        <v>-9.98</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>921.40800000000002</v>
+        <v>938.73500000000001</v>
       </c>
       <c r="B24" s="1">
-        <v>1421.28</v>
+        <v>1388.037</v>
       </c>
       <c r="C24" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D24" s="1">
-        <v>-8.07</v>
+        <v>-7.98</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>916.71400000000006</v>
+        <v>935.52700000000004</v>
       </c>
       <c r="B25" s="1">
-        <v>1321.5029999999999</v>
+        <v>1294.03</v>
       </c>
       <c r="C25" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D25" s="1">
-        <v>-6.1</v>
+        <v>-5.98</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>912.97900000000004</v>
+        <v>932.84299999999996</v>
       </c>
       <c r="B26" s="1">
-        <v>1220.499</v>
+        <v>1201.0260000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D26" s="1">
-        <v>-4.0999999999999996</v>
+        <v>-3.98</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>909.96900000000005</v>
+        <v>930.93299999999999</v>
       </c>
       <c r="B27" s="1">
-        <v>1119.7840000000001</v>
+        <v>1106.2739999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D27" s="1">
-        <v>-2.1</v>
+        <v>-1.98</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>907.59799999999996</v>
+        <v>929.96699999999998</v>
       </c>
       <c r="B28" s="1">
-        <v>1019.811</v>
+        <v>1013.574</v>
       </c>
       <c r="C28" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>905.96</v>
+        <v>929.20399999999995</v>
       </c>
       <c r="B29" s="1">
-        <v>919.26</v>
+        <v>918.85500000000002</v>
       </c>
       <c r="C29" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D29" s="1">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>905.09199999999998</v>
+        <v>929.36500000000001</v>
       </c>
       <c r="B30" s="1">
-        <v>817.71400000000006</v>
+        <v>823.28599999999994</v>
       </c>
       <c r="C30" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D30" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>905.06200000000001</v>
+        <v>930.28899999999999</v>
       </c>
       <c r="B31" s="1">
-        <v>717.58100000000002</v>
+        <v>728.88300000000004</v>
       </c>
       <c r="C31" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D31" s="1">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>906</v>
+        <v>931.53800000000001</v>
       </c>
       <c r="B32" s="1">
-        <v>616.05399999999997</v>
+        <v>634.97199999999998</v>
       </c>
       <c r="C32" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D32" s="1">
-        <v>7.93</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>907.57500000000005</v>
+        <v>933.82600000000002</v>
       </c>
       <c r="B33" s="1">
-        <v>515.12</v>
+        <v>539.24300000000005</v>
       </c>
       <c r="C33" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D33" s="1">
-        <v>9.93</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>909.93399999999997</v>
+        <v>936.64599999999996</v>
       </c>
       <c r="B34" s="1">
-        <v>414.10599999999999</v>
+        <v>442.41899999999998</v>
       </c>
       <c r="C34" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D34" s="1">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>912.58699999999999</v>
+        <v>940.48</v>
       </c>
       <c r="B35" s="1">
-        <v>312.005</v>
+        <v>344.41300000000001</v>
       </c>
       <c r="C35" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D35" s="1">
-        <v>13.95</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>916.40200000000004</v>
+        <v>944.88199999999995</v>
       </c>
       <c r="B36" s="1">
-        <v>207.761</v>
+        <v>244.36799999999999</v>
       </c>
       <c r="C36" s="1">
-        <v>2600.5</v>
+        <v>2600.4</v>
       </c>
       <c r="D36" s="1">
-        <v>15.95</v>
+        <v>16</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>890.01099999999997</v>
+        <v>912.53800000000001</v>
       </c>
       <c r="B37" s="1">
-        <v>1015.314</v>
+        <v>1015.178</v>
       </c>
       <c r="C37" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -907,268 +907,268 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>928.77300000000002</v>
+        <v>941.52499999999998</v>
       </c>
       <c r="B38" s="1">
-        <v>1821.6469999999999</v>
+        <v>1778.1410000000001</v>
       </c>
       <c r="C38" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D38" s="1">
-        <v>-15.9</v>
+        <v>-16.07</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>921.79700000000003</v>
+        <v>935.06500000000005</v>
       </c>
       <c r="B39" s="1">
-        <v>1727.0530000000001</v>
+        <v>1673.99</v>
       </c>
       <c r="C39" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D39" s="1">
-        <v>-14.1</v>
+        <v>-13.95</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>914.90499999999997</v>
+        <v>929.96799999999996</v>
       </c>
       <c r="B40" s="1">
-        <v>1622.4570000000001</v>
+        <v>1578.6759999999999</v>
       </c>
       <c r="C40" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D40" s="1">
-        <v>-12.07</v>
+        <v>-11.98</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>908.95600000000002</v>
+        <v>925.40300000000002</v>
       </c>
       <c r="B41" s="1">
-        <v>1522.0050000000001</v>
+        <v>1482.5509999999999</v>
       </c>
       <c r="C41" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D41" s="1">
-        <v>-10.1</v>
+        <v>-9.98</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>903.64400000000001</v>
+        <v>921.48800000000006</v>
       </c>
       <c r="B42" s="1">
-        <v>1420.732</v>
+        <v>1387.9059999999999</v>
       </c>
       <c r="C42" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D42" s="1">
-        <v>-8.1</v>
+        <v>-7.98</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>899.11500000000001</v>
+        <v>918.26099999999997</v>
       </c>
       <c r="B43" s="1">
-        <v>1320.2750000000001</v>
+        <v>1293.595</v>
       </c>
       <c r="C43" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D43" s="1">
-        <v>-6.1</v>
+        <v>-5.98</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>895.26900000000001</v>
+        <v>915.58600000000001</v>
       </c>
       <c r="B44" s="1">
-        <v>1219.0119999999999</v>
+        <v>1200.7439999999999</v>
       </c>
       <c r="C44" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D44" s="1">
-        <v>-4.0999999999999996</v>
+        <v>-3.98</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>892.24800000000005</v>
+        <v>913.65200000000004</v>
       </c>
       <c r="B45" s="1">
-        <v>1118.9780000000001</v>
+        <v>1106.434</v>
       </c>
       <c r="C45" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D45" s="1">
-        <v>-2.1</v>
+        <v>-1.98</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>890.05700000000002</v>
+        <v>912.51300000000003</v>
       </c>
       <c r="B46" s="1">
-        <v>1018.561</v>
+        <v>1013.371</v>
       </c>
       <c r="C46" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D46" s="1">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>888.5</v>
+        <v>912</v>
       </c>
       <c r="B47" s="1">
-        <v>917.86900000000003</v>
+        <v>919.67</v>
       </c>
       <c r="C47" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D47" s="1">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>887.89599999999996</v>
+        <v>912</v>
       </c>
       <c r="B48" s="1">
-        <v>817.54700000000003</v>
+        <v>823.53700000000003</v>
       </c>
       <c r="C48" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D48" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>887.9</v>
+        <v>912.74199999999996</v>
       </c>
       <c r="B49" s="1">
-        <v>716.95600000000002</v>
+        <v>728.97500000000002</v>
       </c>
       <c r="C49" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D49" s="1">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>888.48299999999995</v>
+        <v>914.31600000000003</v>
       </c>
       <c r="B50" s="1">
-        <v>615.56399999999996</v>
+        <v>635.57899999999995</v>
       </c>
       <c r="C50" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D50" s="1">
-        <v>7.93</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>889.98699999999997</v>
+        <v>916.452</v>
       </c>
       <c r="B51" s="1">
-        <v>514.62699999999995</v>
+        <v>540.01900000000001</v>
       </c>
       <c r="C51" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D51" s="1">
-        <v>9.93</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>891.98500000000001</v>
+        <v>919.26199999999994</v>
       </c>
       <c r="B52" s="1">
-        <v>413.65800000000002</v>
+        <v>444.26100000000002</v>
       </c>
       <c r="C52" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D52" s="1">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>894.67600000000004</v>
+        <v>922.51900000000001</v>
       </c>
       <c r="B53" s="1">
-        <v>311.69799999999998</v>
+        <v>345.53399999999999</v>
       </c>
       <c r="C53" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D53" s="1">
-        <v>13.95</v>
+        <v>14</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>898.21600000000001</v>
+        <v>926.85</v>
       </c>
       <c r="B54" s="1">
-        <v>207.54400000000001</v>
+        <v>245.149</v>
       </c>
       <c r="C54" s="1">
-        <v>2700.2</v>
+        <v>2700.1</v>
       </c>
       <c r="D54" s="1">
-        <v>15.97</v>
+        <v>16</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>873.93600000000004</v>
+        <v>896.46600000000001</v>
       </c>
       <c r="B55" s="1">
-        <v>1015.2190000000001</v>
+        <v>1015.0309999999999</v>
       </c>
       <c r="C55" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1177,268 +1177,268 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>912.00099999999998</v>
+        <v>924.76599999999996</v>
       </c>
       <c r="B56" s="1">
-        <v>1821.643</v>
+        <v>1777.287</v>
       </c>
       <c r="C56" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D56" s="1">
-        <v>-15.9</v>
+        <v>-16.07</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>905.13699999999994</v>
+        <v>918.65899999999999</v>
       </c>
       <c r="B57" s="1">
-        <v>1726.567</v>
+        <v>1674.0989999999999</v>
       </c>
       <c r="C57" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D57" s="1">
-        <v>-14.1</v>
+        <v>-13.98</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>898.38</v>
+        <v>913.52300000000002</v>
       </c>
       <c r="B58" s="1">
-        <v>1623.0039999999999</v>
+        <v>1577.712</v>
       </c>
       <c r="C58" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D58" s="1">
-        <v>-12.07</v>
+        <v>-11.95</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>892.61500000000001</v>
+        <v>909.22699999999998</v>
       </c>
       <c r="B59" s="1">
-        <v>1522.0519999999999</v>
+        <v>1482.9690000000001</v>
       </c>
       <c r="C59" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D59" s="1">
-        <v>-10.1</v>
+        <v>-9.98</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>887.46100000000001</v>
+        <v>905.37900000000002</v>
       </c>
       <c r="B60" s="1">
-        <v>1420.51</v>
+        <v>1387.886</v>
       </c>
       <c r="C60" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D60" s="1">
-        <v>-8.1</v>
+        <v>-7.98</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>883.03200000000004</v>
+        <v>901.93299999999999</v>
       </c>
       <c r="B61" s="1">
-        <v>1320.364</v>
+        <v>1293.306</v>
       </c>
       <c r="C61" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D61" s="1">
-        <v>-6.1</v>
+        <v>-5.98</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>879.09400000000005</v>
+        <v>899.53800000000001</v>
       </c>
       <c r="B62" s="1">
-        <v>1219.396</v>
+        <v>1200.239</v>
       </c>
       <c r="C62" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D62" s="1">
-        <v>-4.0999999999999996</v>
+        <v>-3.98</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>876.08500000000004</v>
+        <v>897.78599999999994</v>
       </c>
       <c r="B63" s="1">
-        <v>1118.732</v>
+        <v>1107.3040000000001</v>
       </c>
       <c r="C63" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D63" s="1">
-        <v>-2.1</v>
+        <v>-1.98</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>873.99699999999996</v>
+        <v>896.46799999999996</v>
       </c>
       <c r="B64" s="1">
-        <v>1019.467</v>
+        <v>1013.822</v>
       </c>
       <c r="C64" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D64" s="1">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>872.43899999999996</v>
+        <v>896</v>
       </c>
       <c r="B65" s="1">
-        <v>918.68799999999999</v>
+        <v>920.02499999999998</v>
       </c>
       <c r="C65" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D65" s="1">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>871.80799999999999</v>
+        <v>896</v>
       </c>
       <c r="B66" s="1">
-        <v>818.596</v>
+        <v>824.55799999999999</v>
       </c>
       <c r="C66" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D66" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>871.69299999999998</v>
+        <v>896.70699999999999</v>
       </c>
       <c r="B67" s="1">
-        <v>717.976</v>
+        <v>729.91399999999999</v>
       </c>
       <c r="C67" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D67" s="1">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>872.03700000000003</v>
+        <v>897.99300000000005</v>
       </c>
       <c r="B68" s="1">
-        <v>616.9</v>
+        <v>636.78700000000003</v>
       </c>
       <c r="C68" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D68" s="1">
-        <v>7.93</v>
+        <v>8</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>873.60400000000004</v>
+        <v>900.053</v>
       </c>
       <c r="B69" s="1">
-        <v>515.73299999999995</v>
+        <v>540.98099999999999</v>
       </c>
       <c r="C69" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D69" s="1">
-        <v>9.93</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>875.53399999999999</v>
+        <v>902.67600000000004</v>
       </c>
       <c r="B70" s="1">
-        <v>414.45100000000002</v>
+        <v>444.54</v>
       </c>
       <c r="C70" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D70" s="1">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>878.40300000000002</v>
+        <v>906.05799999999999</v>
       </c>
       <c r="B71" s="1">
-        <v>312.52999999999997</v>
+        <v>346.63299999999998</v>
       </c>
       <c r="C71" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D71" s="1">
-        <v>13.95</v>
+        <v>14</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>881.41700000000003</v>
+        <v>910.01599999999996</v>
       </c>
       <c r="B72" s="1">
-        <v>209.196</v>
+        <v>246.339</v>
       </c>
       <c r="C72" s="1">
-        <v>2799.9</v>
+        <v>2799.8</v>
       </c>
       <c r="D72" s="1">
-        <v>15.97</v>
+        <v>16</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>858.91300000000001</v>
+        <v>881.678</v>
       </c>
       <c r="B73" s="1">
-        <v>1015.312</v>
+        <v>1015.369</v>
       </c>
       <c r="C73" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1447,256 +1447,256 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>896.03700000000003</v>
+        <v>909.35</v>
       </c>
       <c r="B74" s="1">
-        <v>1819.271</v>
+        <v>1776.3530000000001</v>
       </c>
       <c r="C74" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D74" s="1">
-        <v>-15.9</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>889.62900000000002</v>
+        <v>903.20699999999999</v>
       </c>
       <c r="B75" s="1">
-        <v>1724.83</v>
+        <v>1672.1869999999999</v>
       </c>
       <c r="C75" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D75" s="1">
-        <v>-14.1</v>
+        <v>-13.97</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>883.06700000000001</v>
+        <v>898.33900000000006</v>
       </c>
       <c r="B76" s="1">
-        <v>1621.6590000000001</v>
+        <v>1575.5329999999999</v>
       </c>
       <c r="C76" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D76" s="1">
-        <v>-12.08</v>
+        <v>-11.95</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>877.47</v>
+        <v>893.87300000000005</v>
       </c>
       <c r="B77" s="1">
-        <v>1520.89</v>
+        <v>1481.001</v>
       </c>
       <c r="C77" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D77" s="1">
-        <v>-10.1</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>872.24</v>
+        <v>890.21400000000006</v>
       </c>
       <c r="B78" s="1">
-        <v>1419.481</v>
+        <v>1387.0540000000001</v>
       </c>
       <c r="C78" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D78" s="1">
-        <v>-8.1</v>
+        <v>-7.97</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>867.99599999999998</v>
+        <v>887.05600000000004</v>
       </c>
       <c r="B79" s="1">
-        <v>1319.373</v>
+        <v>1292.761</v>
       </c>
       <c r="C79" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D79" s="1">
-        <v>-6.1</v>
+        <v>-5.97</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>864.06600000000003</v>
+        <v>884.59</v>
       </c>
       <c r="B80" s="1">
-        <v>1218.3879999999999</v>
+        <v>1199.133</v>
       </c>
       <c r="C80" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D80" s="1">
-        <v>-4.0999999999999996</v>
+        <v>-3.97</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>861.16600000000005</v>
+        <v>882.95399999999995</v>
       </c>
       <c r="B81" s="1">
-        <v>1117.8710000000001</v>
+        <v>1106.2629999999999</v>
       </c>
       <c r="C81" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D81" s="1">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>858.99099999999999</v>
+        <v>881.68499999999995</v>
       </c>
       <c r="B82" s="1">
-        <v>1018.205</v>
+        <v>1012.308</v>
       </c>
       <c r="C82" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D82" s="1">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>857.5</v>
+        <v>880.99800000000005</v>
       </c>
       <c r="B83" s="1">
-        <v>918.01900000000001</v>
+        <v>918.15499999999997</v>
       </c>
       <c r="C83" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D83" s="1">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>856.77</v>
+        <v>881</v>
       </c>
       <c r="B84" s="1">
-        <v>817.52700000000004</v>
+        <v>824.34799999999996</v>
       </c>
       <c r="C84" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D84" s="1">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>856.74900000000002</v>
+        <v>881.77200000000005</v>
       </c>
       <c r="B85" s="1">
-        <v>716.94</v>
+        <v>729.99300000000005</v>
       </c>
       <c r="C85" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D85" s="1">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>857.00400000000002</v>
+        <v>883</v>
       </c>
       <c r="B86" s="1">
-        <v>616.16800000000001</v>
+        <v>637.02499999999998</v>
       </c>
       <c r="C86" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D86" s="1">
-        <v>7.92</v>
+        <v>8</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>858.42700000000002</v>
+        <v>884.899</v>
       </c>
       <c r="B87" s="1">
-        <v>515.62599999999998</v>
+        <v>541.33699999999999</v>
       </c>
       <c r="C87" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D87" s="1">
-        <v>9.92</v>
+        <v>10</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>860.19299999999998</v>
+        <v>887.50800000000004</v>
       </c>
       <c r="B88" s="1">
-        <v>413.87</v>
+        <v>444.19799999999998</v>
       </c>
       <c r="C88" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D88" s="1">
-        <v>11.95</v>
+        <v>12.03</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>862.62</v>
+        <v>890.61400000000003</v>
       </c>
       <c r="B89" s="1">
-        <v>312.12299999999999</v>
+        <v>347.52499999999998</v>
       </c>
       <c r="C89" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D89" s="1">
-        <v>13.95</v>
+        <v>13.98</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>865.83600000000001</v>
+        <v>894.59100000000001</v>
       </c>
       <c r="B90" s="1">
-        <v>208.52099999999999</v>
+        <v>246.012</v>
       </c>
       <c r="C90" s="1">
-        <v>2899.6</v>
+        <v>2899.5</v>
       </c>
       <c r="D90" s="1">
-        <v>15.97</v>
+        <v>16</v>
       </c>
       <c r="E90" s="1"/>
     </row>
